--- a/environmental_conditions/ppp_conditions.xlsx
+++ b/environmental_conditions/ppp_conditions.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{803CAD7F-70AE-4766-9ECC-B89AEC9B11E3}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7EA5B5CC-00ED-4672-9B24-5AF5E444E2EC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="iCC390" sheetId="2" r:id="rId1"/>
+    <sheet name="iCC389" sheetId="2" r:id="rId1"/>
     <sheet name="iCC431" sheetId="1" r:id="rId2"/>
-    <sheet name="iCC464" sheetId="4" r:id="rId3"/>
-    <sheet name="iCC644" sheetId="3" r:id="rId4"/>
+    <sheet name="iCC470" sheetId="4" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iCC390'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iCC464'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC644'!$A$1:$A$136</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">'iCC644'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iCC389'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iCC470'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC651'!$A$1:$A$137</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">'iCC651'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
   <si>
     <t>exchange</t>
   </si>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B72" sqref="A72:B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1110,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,10 +1171,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>9.3800000000000008</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2E160-0E44-4C80-A334-F20DED143A47}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1902,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>27.623999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2944,7 +2944,7 @@
         <v>72</v>
       </c>
       <c r="B12">
-        <v>999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3040,7 +3040,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>16.399999999999999</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3714,10 +3714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3738,7 +3738,7 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3874,7 +3874,7 @@
         <v>59</v>
       </c>
       <c r="B19">
-        <v>8.83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4574,8 +4574,8 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>153</v>
+      <c r="A107" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4735,23 +4735,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>196</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>45</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4807,15 +4807,23 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>197</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B139">
-    <sortCondition descending="1" ref="B1:B139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B140">
+    <sortCondition descending="1" ref="B1:B140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/environmental_conditions/ppp_conditions.xlsx
+++ b/environmental_conditions/ppp_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7EA5B5CC-00ED-4672-9B24-5AF5E444E2EC}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4766FFB2-FA3D-4CC7-A684-FCD9B5B13505}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC389" sheetId="2" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3716,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,7 +3898,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3922,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4002,7 +4002,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">

--- a/environmental_conditions/ppp_conditions.xlsx
+++ b/environmental_conditions/ppp_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4766FFB2-FA3D-4CC7-A684-FCD9B5B13505}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EA924BB-26BE-4426-AC7F-520362C20458}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="213">
   <si>
     <t>exchange</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>EX_acmum_e</t>
-  </si>
-  <si>
-    <t>EX_C16639_e</t>
   </si>
   <si>
     <t>EX_amp_e</t>
@@ -1046,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1364,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1690,14 +1687,6 @@
         <v>112</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78">
         <v>0</v>
       </c>
     </row>
@@ -1711,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2E160-0E44-4C80-A334-F20DED143A47}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1891,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF382F-D75E-4447-BB31-B6B9F6F7A60E}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2861,7 +2850,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>999999</v>
@@ -3040,7 +3029,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3205,7 +3194,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3237,7 +3226,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3269,7 +3258,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3317,7 +3306,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3333,7 +3322,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3349,7 +3338,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3373,7 +3362,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3541,7 +3530,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3573,7 +3562,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3589,7 +3578,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3685,7 +3674,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3693,7 +3682,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3701,7 +3690,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3716,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3759,7 +3748,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>999999</v>
@@ -3874,7 +3863,7 @@
         <v>59</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4039,7 +4028,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4063,7 +4052,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4071,7 +4060,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4079,7 +4068,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4135,7 +4124,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4151,7 +4140,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4159,7 +4148,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4167,7 +4156,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4175,7 +4164,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4183,7 +4172,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4191,7 +4180,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4207,7 +4196,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4215,7 +4204,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4223,7 +4212,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4263,7 +4252,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4359,7 +4348,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4383,7 +4372,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4407,7 +4396,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4415,7 +4404,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4463,7 +4452,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4471,7 +4460,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4519,7 +4508,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4527,7 +4516,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4551,7 +4540,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4599,7 +4588,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4607,7 +4596,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4615,7 +4604,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4623,7 +4612,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4687,7 +4676,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4719,7 +4708,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4735,7 +4724,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4743,7 +4732,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4767,7 +4756,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4815,7 +4804,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137">
         <v>0</v>
